--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.7607193524807201</v>
+        <v>2.760719395061713</v>
       </c>
       <c r="C2">
-        <v>7.6271512395157401</v>
+        <v>7.6271512215871553</v>
       </c>
       <c r="D2">
-        <v>12.047932614570641</v>
+        <v>12.047932629589901</v>
       </c>
       <c r="E2">
-        <v>18.111546112712951</v>
+        <v>18.111546113498072</v>
       </c>
       <c r="F2">
-        <v>5.6320149156276784</v>
+        <v>5.6320149031807247</v>
       </c>
       <c r="G2">
-        <v>1.8034230834643949</v>
+        <v>1.803423076045739</v>
       </c>
       <c r="H2">
-        <v>5.685517835785852</v>
+        <v>5.6855177962811823</v>
       </c>
       <c r="I2">
-        <v>8.8158494024834297</v>
+        <v>8.8158494033476131</v>
       </c>
       <c r="J2">
-        <v>14.146963555573734</v>
+        <v>14.146963618263925</v>
       </c>
       <c r="K2">
-        <v>4.3729447809276252</v>
+        <v>4.3729447625687357</v>
       </c>
       <c r="L2">
-        <v>4.864827081744842</v>
+        <v>4.8648270856481872</v>
       </c>
       <c r="M2">
-        <v>-6.7054831601696208</v>
+        <v>-6.7054831622718609</v>
       </c>
       <c r="N2">
-        <v>10.080680022507821</v>
+        <v>10.080680001298433</v>
       </c>
       <c r="O2">
-        <v>8.5988839954571432</v>
+        <v>8.5988840129827651</v>
       </c>
       <c r="P2">
-        <v>11.286159891075563</v>
+        <v>11.286159881430777</v>
       </c>
       <c r="Q2">
-        <v>0.44533009348474906</v>
+        <v>0.44533008535809415</v>
       </c>
       <c r="R2">
-        <v>-4.5192477991892304</v>
+        <v>-4.5192477786255836</v>
       </c>
       <c r="S2">
-        <v>20.629184649153814</v>
+        <v>20.629184649541145</v>
       </c>
       <c r="T2">
-        <v>16.262766928720602</v>
+        <v>16.262766928298284</v>
       </c>
       <c r="U2">
-        <v>-4.0696153782192823E-2</v>
+        <v>-4.0696162445023276E-2</v>
       </c>
       <c r="V2">
-        <v>6.3320810547857675</v>
+        <v>6.3320810181888731</v>
       </c>
       <c r="W2">
-        <v>-3.2824233832916363</v>
+        <v>-3.2824235050832655</v>
       </c>
       <c r="X2">
-        <v>1.5778698244496852</v>
+        <v>1.5778698173270342</v>
       </c>
       <c r="Y2">
-        <v>14.548362171694059</v>
+        <v>14.548362129677223</v>
       </c>
       <c r="Z2">
-        <v>8.4138007563718347</v>
+        <v>8.4138007356230915</v>
       </c>
       <c r="AA2">
-        <v>22.531194757362442</v>
+        <v>22.531194738896289</v>
       </c>
       <c r="AB2">
-        <v>17.893333874942002</v>
+        <v>17.893333920838174</v>
       </c>
       <c r="AC2">
-        <v>2.6316209823599195</v>
+        <v>2.631620958936594</v>
       </c>
       <c r="AD2">
-        <v>23.258113082417381</v>
+        <v>23.258113095409726</v>
       </c>
       <c r="AE2">
-        <v>6.7703250199578093</v>
+        <v>6.7703248795042654</v>
       </c>
       <c r="AF2">
-        <v>10.236993067461412</v>
+        <v>10.236992979731703</v>
       </c>
       <c r="AG2">
-        <v>12.003100942597008</v>
+        <v>12.003100973893311</v>
       </c>
       <c r="AH2">
-        <v>12.824143816351004</v>
+        <v>12.824143765629124</v>
       </c>
       <c r="AI2">
-        <v>21.30201838563201</v>
+        <v>21.302018253757325</v>
       </c>
       <c r="AJ2">
-        <v>11.710055951794388</v>
+        <v>11.710055844081758</v>
       </c>
       <c r="AK2">
-        <v>14.028296244732466</v>
+        <v>14.028296270244162</v>
       </c>
       <c r="AL2">
-        <v>-1.8209638027225168</v>
+        <v>-1.8209638935772006</v>
       </c>
       <c r="AM2">
-        <v>13.962525025977087</v>
+        <v>13.962524936529718</v>
       </c>
       <c r="AN2">
-        <v>11.416941877967403</v>
+        <v>11.416941844320057</v>
       </c>
       <c r="AO2">
-        <v>20.70575470887816</v>
+        <v>20.705754759340806</v>
       </c>
       <c r="AP2">
-        <v>14.44842401605807</v>
+        <v>14.448423912280916</v>
       </c>
       <c r="AQ2">
-        <v>-1.8852598144185606</v>
+        <v>-1.8852598986136755</v>
       </c>
       <c r="AR2">
-        <v>19.799139699676203</v>
+        <v>19.799139703032552</v>
       </c>
       <c r="AS2">
-        <v>24.221368238506145</v>
+        <v>24.221368191467249</v>
       </c>
       <c r="AT2">
-        <v>7.8399808918634335</v>
+        <v>7.8399809728736471</v>
       </c>
       <c r="AU2">
-        <v>11.960176754921292</v>
+        <v>11.96017669901736</v>
       </c>
       <c r="AV2">
-        <v>13.389420872476713</v>
+        <v>13.389420917441804</v>
       </c>
       <c r="AW2">
-        <v>5.7516394505989368</v>
+        <v>5.751639370164078</v>
       </c>
       <c r="AX2">
-        <v>17.613739342904992</v>
+        <v>17.613739407832369</v>
       </c>
       <c r="AY2">
-        <v>19.796551359799842</v>
+        <v>19.796551376828084</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.2664863128711445</v>
+        <v>8.2664861702904986</v>
       </c>
       <c r="C3">
-        <v>7.3630063966652415</v>
+        <v>7.3630064034580371</v>
       </c>
       <c r="D3">
-        <v>13.186041367268658</v>
+        <v>13.186041289375055</v>
       </c>
       <c r="E3">
-        <v>14.117347781275868</v>
+        <v>14.117347802437109</v>
       </c>
       <c r="F3">
-        <v>5.4257169590404359</v>
+        <v>5.4257169461689756</v>
       </c>
       <c r="G3">
-        <v>11.735375672187359</v>
+        <v>11.735375717455391</v>
       </c>
       <c r="H3">
-        <v>-2.2927225405591543</v>
+        <v>-2.2927225411561807</v>
       </c>
       <c r="I3">
-        <v>3.2535138731329312</v>
+        <v>3.253513863655904</v>
       </c>
       <c r="J3">
-        <v>16.118676301593837</v>
+        <v>16.118676474135256</v>
       </c>
       <c r="K3">
-        <v>22.185717099899968</v>
+        <v>22.185717097407</v>
       </c>
       <c r="L3">
-        <v>14.302565316744825</v>
+        <v>14.302565302468018</v>
       </c>
       <c r="M3">
-        <v>3.0590888195121124E-2</v>
+        <v>3.0439516043898607E-2</v>
       </c>
       <c r="N3">
-        <v>8.2072100431750528</v>
+        <v>8.2072100330232018</v>
       </c>
       <c r="O3">
-        <v>-11.038510135549814</v>
+        <v>-11.038510188253646</v>
       </c>
       <c r="P3">
-        <v>12.931075120337923</v>
+        <v>12.931075068089498</v>
       </c>
       <c r="Q3">
-        <v>5.5066246434668145</v>
+        <v>5.5066246643178403</v>
       </c>
       <c r="R3">
-        <v>3.2813696586942243</v>
+        <v>3.2813695555772853</v>
       </c>
       <c r="S3">
-        <v>15.653094703805301</v>
+        <v>15.653094697652357</v>
       </c>
       <c r="T3">
-        <v>16.281143540183585</v>
+        <v>16.281143552308244</v>
       </c>
       <c r="U3">
-        <v>7.5083165152155757</v>
+        <v>7.5083165237394738</v>
       </c>
       <c r="V3">
-        <v>8.7348789556710074</v>
+        <v>8.7348789581125033</v>
       </c>
       <c r="W3">
-        <v>1.4475169558510146</v>
+        <v>1.4475169678318451</v>
       </c>
       <c r="X3">
-        <v>-2.6049672063414633</v>
+        <v>-2.6049672188624626</v>
       </c>
       <c r="Y3">
-        <v>18.37178000286594</v>
+        <v>18.371779929893144</v>
       </c>
       <c r="Z3">
-        <v>10.499247108197345</v>
+        <v>10.499247087530172</v>
       </c>
       <c r="AA3">
-        <v>20.026020114172866</v>
+        <v>20.026020166022718</v>
       </c>
       <c r="AB3">
-        <v>16.977871449797867</v>
+        <v>16.977871480310604</v>
       </c>
       <c r="AC3">
-        <v>17.830809586001699</v>
+        <v>17.830809547300213</v>
       </c>
       <c r="AD3">
-        <v>23.448637218376241</v>
+        <v>23.448637211289189</v>
       </c>
       <c r="AE3">
-        <v>13.482789177469535</v>
+        <v>13.482789072236734</v>
       </c>
       <c r="AF3">
-        <v>12.144690969192574</v>
+        <v>12.144690813313353</v>
       </c>
       <c r="AG3">
-        <v>9.3190045419675371</v>
+        <v>9.3190043881740436</v>
       </c>
       <c r="AH3">
-        <v>6.6151375510954864</v>
+        <v>6.6151373534566744</v>
       </c>
       <c r="AI3">
-        <v>40.157012602658014</v>
+        <v>40.157012490294818</v>
       </c>
       <c r="AJ3">
-        <v>22.082518519145935</v>
+        <v>22.082518518403788</v>
       </c>
       <c r="AK3">
-        <v>15.4336445220857</v>
+        <v>15.43364437072978</v>
       </c>
       <c r="AL3">
-        <v>10.884691429865249</v>
+        <v>10.884691587419972</v>
       </c>
       <c r="AM3">
-        <v>15.899999405480855</v>
+        <v>15.899999349687562</v>
       </c>
       <c r="AN3">
-        <v>-4.201899396223773</v>
+        <v>-4.2018994099784166</v>
       </c>
       <c r="AO3">
-        <v>22.814971290038393</v>
+        <v>22.814971345735465</v>
       </c>
       <c r="AP3">
-        <v>4.3265551027125042</v>
+        <v>4.3265550287941323</v>
       </c>
       <c r="AQ3">
-        <v>10.775747022199468</v>
+        <v>10.775747015896542</v>
       </c>
       <c r="AR3">
-        <v>25.893427326582334</v>
+        <v>25.893427348512169</v>
       </c>
       <c r="AS3">
-        <v>17.038730013393945</v>
+        <v>17.0387300425337</v>
       </c>
       <c r="AT3">
-        <v>12.562287692807303</v>
+        <v>12.562287597350149</v>
       </c>
       <c r="AU3">
-        <v>9.1228722102834823</v>
+        <v>9.1228721202599559</v>
       </c>
       <c r="AV3">
-        <v>8.7558494025211431</v>
+        <v>8.7558493314138701</v>
       </c>
       <c r="AW3">
-        <v>6.7761144678908352</v>
+        <v>6.7761136459390201</v>
       </c>
       <c r="AX3">
-        <v>11.8144509717186</v>
+        <v>11.814450785856891</v>
       </c>
       <c r="AY3">
-        <v>23.350882680212329</v>
+        <v>23.350882646598969</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>2.760719395061713</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.6271512215871553</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>12.047932629589901</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>18.111546113498072</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.6320149031807247</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.803423076045739</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5.6855177962811823</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.8158494033476131</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>14.146963618263925</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.3729447625687357</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.8648270856481872</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-6.7054831622718609</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>10.080680001298433</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.5988840129827651</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.286159881430777</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.44533008535809415</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-4.5192477786255836</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>20.629184649541145</v>
+        <v>14.661016548518106</v>
       </c>
       <c r="T2">
         <v>16.262766928298284</v>
@@ -588,55 +477,55 @@
         <v>8.4138007356230915</v>
       </c>
       <c r="AA2">
-        <v>22.531194738896289</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>17.893333920838174</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.631620958936594</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>23.258113095409726</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>6.7703248795042654</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>10.236992979731703</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>12.003100973893311</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.824143765629124</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>21.302018253757325</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>11.710055844081758</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>14.028296270244162</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-1.8209638935772006</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>13.962524936529718</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>11.416941844320057</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>20.705754759340806</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>14.448423912280916</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-1.8852598986136755</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>19.799139703032552</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>8.2664861702904986</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.3630064034580371</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13.186041289375055</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14.117347802437109</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.4257169461689756</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>11.735375717455391</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-2.2927225411561807</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.253513863655904</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.118676474135256</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>22.185717097407</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.302565302468018</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.0439516043898607E-2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>8.2072100330232018</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-11.038510188253646</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.931075068089498</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5.5066246643178403</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3.2813695555772853</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>15.653094697652357</v>
@@ -743,55 +629,55 @@
         <v>10.499247087530172</v>
       </c>
       <c r="AA3">
-        <v>20.026020166022718</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>16.977871480310604</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>17.830809547300213</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>23.448637211289189</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>13.482789072236734</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>12.144690813313353</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>9.3190043881740436</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.6151373534566744</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>40.157012490294818</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>22.082518518403788</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>15.43364437072978</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>10.884691587419972</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>15.899999349687562</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-4.2018994099784166</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>22.814971345735465</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.3265550287941323</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>10.775747015896542</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>25.893427348512169</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2.7607193524807201</v>
-      </c>
       <c r="C2">
-        <v>5.751675655509743</v>
-      </c>
-      <c r="D2">
-        <v>12.047932614570641</v>
+        <v>-4.5192477786255836</v>
       </c>
       <c r="E2">
-        <v>18.111546112712951</v>
+        <v>-1.8852598986136755</v>
       </c>
       <c r="F2">
         <v>5.6320149156276784</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.2664863128711445</v>
+        <v>-5.4145561567021687</v>
       </c>
       <c r="C3">
-        <v>7.3630063966652415</v>
+        <v>3.2813695555772853</v>
       </c>
       <c r="D3">
-        <v>13.186041367268658</v>
+        <v>-2.5076467871384907</v>
       </c>
       <c r="E3">
-        <v>14.117347781275868</v>
+        <v>10.568140331805843</v>
       </c>
       <c r="F3">
         <v>5.4257169590404359</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.7607193524807201</v>
-      </c>
-      <c r="C2">
-        <v>5.751675655509743</v>
+        <v>9.5041078576388429</v>
       </c>
       <c r="D2">
-        <v>12.047932614570641</v>
-      </c>
-      <c r="E2">
-        <v>18.111546112712951</v>
+        <v>13.962524936529718</v>
       </c>
       <c r="F2">
         <v>5.6320149156276784</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.2664863128711445</v>
+        <v>8.2072100330232018</v>
       </c>
       <c r="C3">
-        <v>7.3630063966652415</v>
+        <v>-5.4145561567021687</v>
       </c>
       <c r="D3">
-        <v>13.186041367268658</v>
+        <v>15.899999349687562</v>
       </c>
       <c r="E3">
-        <v>19.520849855225592</v>
+        <v>-2.5076467871384907</v>
       </c>
       <c r="F3">
         <v>5.4257169590404359</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2.760719395061713</v>
+      </c>
+      <c r="C2">
+        <v>5.7516755455900608</v>
+      </c>
+      <c r="D2">
+        <v>12.047932629589901</v>
+      </c>
+      <c r="E2">
+        <v>18.111546113498072</v>
+      </c>
+      <c r="F2">
+        <v>5.6320149031807247</v>
+      </c>
+      <c r="G2">
+        <v>5.5638968475788175</v>
+      </c>
+      <c r="H2">
+        <v>5.6855177962811823</v>
+      </c>
+      <c r="I2">
+        <v>12.004350255519881</v>
+      </c>
+      <c r="J2">
+        <v>14.146963618263925</v>
+      </c>
+      <c r="K2">
+        <v>4.3729447625687357</v>
+      </c>
+      <c r="L2">
+        <v>7.1719048569986228</v>
+      </c>
+      <c r="M2">
+        <v>4.0070371460302567E-2</v>
+      </c>
+      <c r="N2">
         <v>9.5041078576388429</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>12.790616801295002</v>
+      </c>
+      <c r="Q2">
+        <v>0.44533008535809415</v>
+      </c>
+      <c r="R2">
+        <v>-4.5192477786255836</v>
+      </c>
+      <c r="T2">
+        <v>13.042982682854117</v>
+      </c>
+      <c r="U2">
+        <v>-4.0696162445023276E-2</v>
+      </c>
+      <c r="V2">
+        <v>9.491437560124659</v>
+      </c>
+      <c r="W2">
+        <v>-3.2824235050832655</v>
+      </c>
+      <c r="X2">
+        <v>1.5778698173270342</v>
+      </c>
+      <c r="Y2">
+        <v>14.548362129677223</v>
+      </c>
+      <c r="Z2">
+        <v>8.4138007356230915</v>
+      </c>
+      <c r="AA2">
+        <v>22.531194738896289</v>
+      </c>
+      <c r="AB2">
+        <v>17.893333920838174</v>
+      </c>
+      <c r="AC2">
+        <v>2.631620958936594</v>
+      </c>
+      <c r="AD2">
+        <v>23.258113095409726</v>
+      </c>
+      <c r="AE2">
+        <v>6.7703248795042654</v>
+      </c>
+      <c r="AF2">
+        <v>10.236992979731703</v>
+      </c>
+      <c r="AG2">
+        <v>12.003100973893311</v>
+      </c>
+      <c r="AH2">
+        <v>12.824143765629124</v>
+      </c>
+      <c r="AI2">
+        <v>21.302018253757325</v>
+      </c>
+      <c r="AJ2">
+        <v>11.710055844081758</v>
+      </c>
+      <c r="AK2">
+        <v>14.028296270244162</v>
+      </c>
+      <c r="AL2">
+        <v>-1.8209638935772006</v>
+      </c>
+      <c r="AM2">
         <v>13.962524936529718</v>
       </c>
-      <c r="F2">
-        <v>5.6320149156276784</v>
-      </c>
-      <c r="G2">
-        <v>5.5638971002182274</v>
-      </c>
-      <c r="H2">
-        <v>5.685517835785852</v>
-      </c>
-      <c r="I2">
-        <v>12.004350174557274</v>
-      </c>
-      <c r="J2">
-        <v>14.146963555573734</v>
-      </c>
-      <c r="K2">
-        <v>4.3729447809276252</v>
-      </c>
-      <c r="L2">
-        <v>7.1719048548100304</v>
-      </c>
-      <c r="M2">
-        <v>4.0070410685359548E-2</v>
-      </c>
-      <c r="N2">
-        <v>9.5041078791056037</v>
-      </c>
-      <c r="P2">
-        <v>12.790616778117872</v>
-      </c>
-      <c r="Q2">
-        <v>0.44533009348474906</v>
-      </c>
-      <c r="R2">
-        <v>-4.5192477991892304</v>
-      </c>
-      <c r="T2">
-        <v>13.042982685199107</v>
-      </c>
-      <c r="U2">
-        <v>-4.0696153782192823E-2</v>
-      </c>
-      <c r="V2">
-        <v>9.4914376235371307</v>
-      </c>
-      <c r="W2">
-        <v>-3.2824233832916363</v>
-      </c>
-      <c r="X2">
-        <v>1.5778698244496852</v>
-      </c>
-      <c r="Y2">
-        <v>14.548362171694059</v>
-      </c>
-      <c r="Z2">
-        <v>8.4138007563718347</v>
-      </c>
-      <c r="AA2">
-        <v>22.531194757362442</v>
-      </c>
-      <c r="AB2">
-        <v>17.893333874942002</v>
-      </c>
-      <c r="AC2">
-        <v>2.6316209823599195</v>
-      </c>
-      <c r="AD2">
-        <v>23.258113082417381</v>
-      </c>
-      <c r="AE2">
-        <v>6.7703250199578093</v>
-      </c>
-      <c r="AF2">
-        <v>10.236993067461412</v>
-      </c>
-      <c r="AG2">
-        <v>12.003100942597008</v>
-      </c>
-      <c r="AH2">
-        <v>12.824143816351004</v>
-      </c>
-      <c r="AI2">
-        <v>21.30201838563201</v>
-      </c>
-      <c r="AJ2">
-        <v>11.710055951794388</v>
-      </c>
-      <c r="AK2">
-        <v>14.028296244732466</v>
-      </c>
-      <c r="AL2">
-        <v>-1.8209638027225168</v>
-      </c>
-      <c r="AM2">
-        <v>13.962525025977087</v>
-      </c>
       <c r="AO2">
-        <v>20.70575470887816</v>
+        <v>20.705754759340806</v>
       </c>
       <c r="AP2">
-        <v>16.681837533043904</v>
+        <v>16.681837486816079</v>
       </c>
       <c r="AQ2">
-        <v>-1.8852598144185606</v>
+        <v>-1.8852598986136755</v>
       </c>
       <c r="AR2">
-        <v>19.799139699676203</v>
+        <v>19.799139703032552</v>
       </c>
       <c r="AS2">
-        <v>24.221368238506145</v>
+        <v>24.221368191467249</v>
       </c>
       <c r="AT2">
-        <v>7.8399808918634335</v>
+        <v>7.8399809728736471</v>
       </c>
       <c r="AU2">
-        <v>6.5464291720345358</v>
+        <v>6.5464290435228776</v>
       </c>
       <c r="AV2">
-        <v>13.389420872476713</v>
+        <v>13.389420917441804</v>
       </c>
       <c r="AW2">
-        <v>5.7516394505989368</v>
+        <v>5.751639370164078</v>
       </c>
       <c r="AX2">
-        <v>17.613739342904992</v>
+        <v>17.613739407832369</v>
       </c>
       <c r="AY2">
-        <v>19.796551359799842</v>
+        <v>19.796551376828084</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>8.2664861702904986</v>
+      </c>
+      <c r="C3">
+        <v>7.3630064034580371</v>
+      </c>
+      <c r="D3">
+        <v>13.186041289375055</v>
+      </c>
+      <c r="E3">
+        <v>19.52084987369031</v>
+      </c>
+      <c r="F3">
+        <v>5.4257169461689756</v>
+      </c>
+      <c r="G3">
+        <v>11.735375717455391</v>
+      </c>
+      <c r="H3">
+        <v>-2.2927225411561807</v>
+      </c>
+      <c r="I3">
+        <v>3.253513863655904</v>
+      </c>
+      <c r="J3">
+        <v>16.118676474135256</v>
+      </c>
+      <c r="K3">
+        <v>18.955272683498443</v>
+      </c>
+      <c r="L3">
+        <v>14.302565302468018</v>
+      </c>
+      <c r="M3">
+        <v>-3.1085370227115305</v>
+      </c>
+      <c r="N3">
         <v>8.2072100330232018</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-5.4145561567021687</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>12.931075068089498</v>
+      </c>
+      <c r="Q3">
+        <v>5.5066246643178403</v>
+      </c>
+      <c r="R3">
+        <v>3.2813695555772853</v>
+      </c>
+      <c r="S3">
+        <v>15.653094697652357</v>
+      </c>
+      <c r="T3">
+        <v>16.281143552308244</v>
+      </c>
+      <c r="U3">
+        <v>7.5083165237394738</v>
+      </c>
+      <c r="V3">
+        <v>10.525082933883262</v>
+      </c>
+      <c r="W3">
+        <v>1.4475169678318451</v>
+      </c>
+      <c r="X3">
+        <v>-2.6049672188624626</v>
+      </c>
+      <c r="Y3">
+        <v>18.371779929893144</v>
+      </c>
+      <c r="Z3">
+        <v>10.499247087530172</v>
+      </c>
+      <c r="AA3">
+        <v>20.026020166022718</v>
+      </c>
+      <c r="AB3">
+        <v>16.977871480310604</v>
+      </c>
+      <c r="AC3">
+        <v>17.830809547300213</v>
+      </c>
+      <c r="AD3">
+        <v>23.448637211289189</v>
+      </c>
+      <c r="AE3">
+        <v>13.482789072236734</v>
+      </c>
+      <c r="AF3">
+        <v>12.144690813313353</v>
+      </c>
+      <c r="AG3">
+        <v>9.3190043881740436</v>
+      </c>
+      <c r="AH3">
+        <v>6.6151373534566744</v>
+      </c>
+      <c r="AI3">
+        <v>18.572061176848692</v>
+      </c>
+      <c r="AJ3">
+        <v>22.082518518403788</v>
+      </c>
+      <c r="AK3">
+        <v>15.43364437072978</v>
+      </c>
+      <c r="AL3">
+        <v>10.884691587419972</v>
+      </c>
+      <c r="AM3">
         <v>15.899999349687562</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-2.5076467871384907</v>
       </c>
-      <c r="F3">
-        <v>5.4257169590404359</v>
-      </c>
-      <c r="G3">
-        <v>11.735375672187359</v>
-      </c>
-      <c r="H3">
-        <v>-2.2927225405591543</v>
-      </c>
-      <c r="I3">
-        <v>3.2535138731329312</v>
-      </c>
-      <c r="J3">
-        <v>16.118676301593837</v>
-      </c>
-      <c r="K3">
-        <v>18.955272683551918</v>
-      </c>
-      <c r="L3">
-        <v>14.302565316744825</v>
-      </c>
-      <c r="M3">
-        <v>-3.1081218521837428</v>
-      </c>
-      <c r="N3">
-        <v>8.2072100431750528</v>
-      </c>
-      <c r="O3">
-        <v>-5.4145560656453782</v>
-      </c>
-      <c r="P3">
-        <v>12.931075120337923</v>
-      </c>
-      <c r="Q3">
-        <v>5.5066246434668145</v>
-      </c>
-      <c r="R3">
-        <v>3.2813696586942243</v>
-      </c>
-      <c r="S3">
-        <v>15.653094703805301</v>
-      </c>
-      <c r="T3">
-        <v>16.281143540183585</v>
-      </c>
-      <c r="U3">
-        <v>7.5083165152155757</v>
-      </c>
-      <c r="V3">
-        <v>10.525082912444908</v>
-      </c>
-      <c r="W3">
-        <v>1.4475169558510146</v>
-      </c>
-      <c r="X3">
-        <v>-2.6049672063414633</v>
-      </c>
-      <c r="Y3">
-        <v>18.37178000286594</v>
-      </c>
-      <c r="Z3">
-        <v>10.499247108197345</v>
-      </c>
-      <c r="AA3">
-        <v>20.026020114172866</v>
-      </c>
-      <c r="AB3">
-        <v>16.977871449797867</v>
-      </c>
-      <c r="AC3">
-        <v>17.830809586001699</v>
-      </c>
-      <c r="AD3">
-        <v>23.448637218376241</v>
-      </c>
-      <c r="AE3">
-        <v>13.482789177469535</v>
-      </c>
-      <c r="AF3">
-        <v>12.144690969192574</v>
-      </c>
-      <c r="AG3">
-        <v>9.3190045419675371</v>
-      </c>
-      <c r="AH3">
-        <v>6.6151375510954864</v>
-      </c>
-      <c r="AI3">
-        <v>18.572061151941327</v>
-      </c>
-      <c r="AJ3">
-        <v>22.082518519145935</v>
-      </c>
-      <c r="AK3">
-        <v>15.4336445220857</v>
-      </c>
-      <c r="AL3">
-        <v>10.884691429865249</v>
-      </c>
-      <c r="AM3">
-        <v>15.899999405480855</v>
-      </c>
-      <c r="AN3">
-        <v>-2.5076468084129218</v>
-      </c>
       <c r="AO3">
-        <v>22.814971290038393</v>
+        <v>22.814971345735465</v>
       </c>
       <c r="AP3">
-        <v>4.3265551027125042</v>
+        <v>4.3265550287941323</v>
       </c>
       <c r="AQ3">
-        <v>10.568140408939513</v>
+        <v>10.568140331805843</v>
       </c>
       <c r="AR3">
-        <v>25.893427326582334</v>
+        <v>25.893427348512169</v>
       </c>
       <c r="AS3">
-        <v>17.038730013393945</v>
+        <v>17.0387300425337</v>
       </c>
       <c r="AT3">
-        <v>12.562287692807303</v>
+        <v>12.562287597350149</v>
       </c>
       <c r="AU3">
-        <v>9.9115469468754966</v>
+        <v>9.9115469421328584</v>
       </c>
       <c r="AV3">
-        <v>8.7558494025211431</v>
+        <v>8.7558493314138701</v>
       </c>
       <c r="AW3">
-        <v>6.7761144678908352</v>
+        <v>6.7761136459390201</v>
       </c>
       <c r="AX3">
-        <v>11.8144509717186</v>
+        <v>11.814450785856891</v>
       </c>
       <c r="AY3">
-        <v>23.350882680212329</v>
+        <v>23.350882646598969</v>
       </c>
     </row>
   </sheetData>
